--- a/data_new.xlsx
+++ b/data_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -346,10 +346,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -377,7 +377,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tirth</t>
+          <t>Tirth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tirth</t>
         </is>
       </c>
     </row>

--- a/data_new.xlsx
+++ b/data_new.xlsx
@@ -1,35 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Face_Id</t>
+  </si>
+  <si>
+    <t>Face_Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Tirth</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,11 +64,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -341,56 +358,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.6640625" customWidth="1" min="2" max="2"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Face_Id</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Face_Name</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tirth</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tirth</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -399,36 +392,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
